--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_11-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_11-21.xlsx
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>FOURVENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
@@ -831,7 +837,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -851,13 +857,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -869,7 +875,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -877,13 +883,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -909,11 +915,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -935,7 +941,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -961,11 +967,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -981,17 +987,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -999,7 +1005,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1007,17 +1013,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1039,11 +1045,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1065,11 +1071,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1091,11 +1097,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>4</v>
+        <v>11.67</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1111,17 +1117,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>133.65000000000001</v>
+        <v>4</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1137,17 +1143,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1155,7 +1161,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1163,51 +1169,77 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="26.25" customHeight="1">
-      <c r="K22" s="10">
-        <v>621.82000000000005</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="11">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c t="s" r="F23" s="12">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
         <v>41</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c t="s" r="I23" s="14">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>25</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c t="s" r="N22" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="K23" s="10">
+        <v>645.82000000000005</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c t="s" r="A24" s="11">
         <v>42</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c t="s" r="F24" s="12">
+        <v>43</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c t="s" r="I24" s="14">
+        <v>44</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="68">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1269,10 +1301,13 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
